--- a/OfertaLaboral_Poblac.xlsx
+++ b/OfertaLaboral_Poblac.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs_Wilmar\Proyeccion_Ejecucion\1-MaestriaAnaliticaDatos\00_Asignaturas\MetodosEstadisticos\Proyecto_Vacantes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB866554-9208-4068-94CF-F397D8DA5160}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C88B75-1A2A-4B37-95EC-65237D45D770}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D5C3CABB-B729-4B54-ACB6-D09A0FAC5E39}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>DPNOM</t>
   </si>
@@ -151,12 +151,6 @@
   </si>
   <si>
     <t>Código DIVIPOLA</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>No definido</t>
   </si>
   <si>
     <t>Población</t>
@@ -512,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1CAB48-06D8-4759-BE47-529F0C8E7D2F}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +532,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1100,23 +1094,6 @@
       </c>
       <c r="E34" s="1">
         <v>114557</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35">
-        <v>2021</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
